--- a/Hardware/PartsList.xlsx
+++ b/Hardware/PartsList.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5DCA8BF7-66BE-461B-8819-A0D1641569A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D70A570E-05ED-451A-89BF-BCE11A822947}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TOP_LEVEL" sheetId="1" r:id="rId1"/>
+    <sheet name="FlightController" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Flight Controller</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t>Aluminium bullet type</t>
+  </si>
+  <si>
+    <t>MPU6050</t>
+  </si>
+  <si>
+    <t>Motion Sensors</t>
+  </si>
+  <si>
+    <t>3-Axis Gyro-Accel-Magneto</t>
   </si>
 </sst>
 </file>
@@ -379,15 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -417,38 +428,63 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E2ED48-373F-4BD1-B73F-7F0D4277D9FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>